--- a/data/trans_orig/P6709-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>20889</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13715</v>
+        <v>12943</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30729</v>
+        <v>30823</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1672141979850502</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1097916138993902</v>
+        <v>0.1036091239513994</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2459887537828988</v>
+        <v>0.2467418236912761</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -763,19 +763,19 @@
         <v>13778</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7633</v>
+        <v>7351</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22684</v>
+        <v>21364</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1596868983815167</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08846753376230636</v>
+        <v>0.08519903238734983</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2629015958878884</v>
+        <v>0.2475999516890161</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -784,19 +784,19 @@
         <v>34667</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24270</v>
+        <v>24579</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46803</v>
+        <v>47116</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1641390944647647</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.114911290845794</v>
+        <v>0.1163747577436415</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2215994583211447</v>
+        <v>0.2230810032338228</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>6161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2797</v>
+        <v>2446</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13419</v>
+        <v>12971</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04931650795950025</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02239079931142631</v>
+        <v>0.019578631379967</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1074205791821665</v>
+        <v>0.1038300875481582</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6482</v>
+        <v>6123</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02278764692031549</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07512449569937038</v>
+        <v>0.07096680638319587</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -855,19 +855,19 @@
         <v>8127</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3772</v>
+        <v>3673</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16095</v>
+        <v>15291</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03847875760179326</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01785965681320663</v>
+        <v>0.01739011271882317</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07620748543029542</v>
+        <v>0.07239950822719439</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>22421</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14832</v>
+        <v>14932</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32474</v>
+        <v>31936</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1794822435738681</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1187299700928664</v>
+        <v>0.1195306237277996</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2599582071150554</v>
+        <v>0.2556451441838238</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -905,19 +905,19 @@
         <v>21271</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13694</v>
+        <v>13125</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31104</v>
+        <v>29699</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2465244422123461</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1587136757494804</v>
+        <v>0.1521123766637075</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3604920919265251</v>
+        <v>0.3442096782971902</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>41</v>
@@ -926,19 +926,19 @@
         <v>43692</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>32022</v>
+        <v>31025</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>56225</v>
+        <v>57426</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2068707775634131</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1516157728229235</v>
+        <v>0.1468967523797898</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.266213950162646</v>
+        <v>0.271898269302815</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>17941</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10723</v>
+        <v>11260</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27531</v>
+        <v>27925</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1436182032715788</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08583511244752647</v>
+        <v>0.09013271816560425</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2203838944890624</v>
+        <v>0.2235424972608443</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -976,19 +976,19 @@
         <v>8741</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4155</v>
+        <v>3944</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16061</v>
+        <v>16247</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1013038453635752</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04816094189882901</v>
+        <v>0.04571537056586696</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1861470884153757</v>
+        <v>0.1882996644837531</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -997,19 +997,19 @@
         <v>26682</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18374</v>
+        <v>18316</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37560</v>
+        <v>39011</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1263316546000682</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08699711371327941</v>
+        <v>0.08672122406346494</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1778391735011401</v>
+        <v>0.1847078342911596</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>57510</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45628</v>
+        <v>45763</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>68609</v>
+        <v>69372</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4603688472100027</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3652555057120819</v>
+        <v>0.3663308473414419</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.549214684046297</v>
+        <v>0.5553202968254085</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>37</v>
@@ -1047,19 +1047,19 @@
         <v>40527</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>30966</v>
+        <v>30532</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>49856</v>
+        <v>50538</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4696971671222465</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3588944558358646</v>
+        <v>0.3538611178925593</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5778183377509926</v>
+        <v>0.585722475157</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>91</v>
@@ -1068,19 +1068,19 @@
         <v>98037</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>83140</v>
+        <v>83484</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>111565</v>
+        <v>113639</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4641797157699608</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3936483426448033</v>
+        <v>0.3952742755088405</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5282312435506249</v>
+        <v>0.5380552437681536</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>15752</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8972</v>
+        <v>8388</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24564</v>
+        <v>25045</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09145348353808476</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05209288496580077</v>
+        <v>0.04869838240555593</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1426121166751967</v>
+        <v>0.1454090020572605</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1193,19 +1193,19 @@
         <v>9133</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4102</v>
+        <v>4152</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16200</v>
+        <v>16595</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07509629755130341</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03372653388708742</v>
+        <v>0.03413826467722077</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1332145103460106</v>
+        <v>0.1364628913299054</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -1214,19 +1214,19 @@
         <v>24884</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16323</v>
+        <v>17216</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35643</v>
+        <v>37011</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0846840241319632</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05554919638183659</v>
+        <v>0.05858623914743541</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1212956861162611</v>
+        <v>0.1259515335376459</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>14846</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8690</v>
+        <v>8590</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25447</v>
+        <v>24567</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08619101568064184</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05045177874218168</v>
+        <v>0.04987135990523539</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1477430766677386</v>
+        <v>0.1426335197481737</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1264,19 +1264,19 @@
         <v>4820</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1009</v>
+        <v>1018</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11943</v>
+        <v>11874</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03963057399371085</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00829878947348891</v>
+        <v>0.00837308883919281</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09820535576192865</v>
+        <v>0.09763639816973627</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>18</v>
@@ -1285,19 +1285,19 @@
         <v>19665</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11796</v>
+        <v>12106</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>30645</v>
+        <v>30353</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06692186876347153</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04014374923870358</v>
+        <v>0.04119647117131897</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1042892512905677</v>
+        <v>0.1032925649740126</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>16671</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9820</v>
+        <v>9894</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26075</v>
+        <v>25829</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09678646865957458</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05701464766699475</v>
+        <v>0.05744101804646068</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1513847502632726</v>
+        <v>0.1499620553326036</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -1335,19 +1335,19 @@
         <v>16113</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9025</v>
+        <v>8782</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25700</v>
+        <v>25387</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1324941714982078</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0742112228960437</v>
+        <v>0.07221186398619195</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2113291997066071</v>
+        <v>0.2087574920659013</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>29</v>
@@ -1356,19 +1356,19 @@
         <v>32783</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>21953</v>
+        <v>22831</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>44334</v>
+        <v>46804</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1115641844015928</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07470887467569599</v>
+        <v>0.07769748296397239</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1508718123264425</v>
+        <v>0.1592775649164765</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>17930</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10614</v>
+        <v>11097</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28104</v>
+        <v>28117</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1041015577221388</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06162334532492288</v>
+        <v>0.06442905207951737</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1631647820371481</v>
+        <v>0.1632416902906324</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1406,19 +1406,19 @@
         <v>12304</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6215</v>
+        <v>6188</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19656</v>
+        <v>20155</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1011721171202798</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05110671399731521</v>
+        <v>0.05088156794459923</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1616326027121787</v>
+        <v>0.1657352529145966</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -1427,19 +1427,19 @@
         <v>30234</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20411</v>
+        <v>20794</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41828</v>
+        <v>42852</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.102889201926163</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06946218470794337</v>
+        <v>0.07076369399684908</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1423463096483545</v>
+        <v>0.1458288209352235</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>107042</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>93279</v>
+        <v>92480</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>119675</v>
+        <v>120195</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6214674743995601</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5415639875221725</v>
+        <v>0.5369246398594929</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6948130046661024</v>
+        <v>0.6978325759199071</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
@@ -1477,19 +1477,19 @@
         <v>79243</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67917</v>
+        <v>67474</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>89893</v>
+        <v>89396</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6516068398364981</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5584795411946573</v>
+        <v>0.5548358810602205</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7391834258269858</v>
+        <v>0.7350976893127943</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>171</v>
@@ -1498,19 +1498,19 @@
         <v>186283</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>168571</v>
+        <v>168305</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>202943</v>
+        <v>203153</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6339407207768095</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5736622603601356</v>
+        <v>0.5727570887992131</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6906359041628629</v>
+        <v>0.6913504419777211</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>5844</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2782</v>
+        <v>1980</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11928</v>
+        <v>11932</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04108183456920489</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01955588631674248</v>
+        <v>0.01391711444840745</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08384852347818679</v>
+        <v>0.08387602584694642</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1623,19 +1623,19 @@
         <v>5062</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1906</v>
+        <v>1887</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10773</v>
+        <v>11289</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06301393976256695</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02372094820918423</v>
+        <v>0.02349294700744016</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1340984449854845</v>
+        <v>0.1405178705571609</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1644,19 +1644,19 @@
         <v>10906</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5930</v>
+        <v>5799</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18995</v>
+        <v>18511</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04899758714559834</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02664132829961496</v>
+        <v>0.02605339513762869</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08533487620157798</v>
+        <v>0.08315926911239623</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>8580</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4627</v>
+        <v>3932</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18255</v>
+        <v>16815</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0603132809955428</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0325296095881159</v>
+        <v>0.02764423556898535</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1283310269457212</v>
+        <v>0.1182047210307463</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1694,19 +1694,19 @@
         <v>7105</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3115</v>
+        <v>2975</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14377</v>
+        <v>14275</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08843573455165729</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03876898635618726</v>
+        <v>0.03703588930183749</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1789589497312972</v>
+        <v>0.1776899862235563</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -1715,19 +1715,19 @@
         <v>15684</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8805</v>
+        <v>8892</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24415</v>
+        <v>26360</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07046325894926397</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03955812684973306</v>
+        <v>0.03994553046287816</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1096862645217955</v>
+        <v>0.1184219103887873</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>29318</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20674</v>
+        <v>20873</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>40227</v>
+        <v>39013</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2060942309561727</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1453303777121226</v>
+        <v>0.1467283801248671</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2827866269420414</v>
+        <v>0.274250451500026</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -1765,19 +1765,19 @@
         <v>17771</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10897</v>
+        <v>11019</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>25745</v>
+        <v>26316</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2212046563537652</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1356380987950655</v>
+        <v>0.1371562539417721</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3204615225586035</v>
+        <v>0.3275720902495897</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>47</v>
@@ -1786,19 +1786,19 @@
         <v>47089</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>35667</v>
+        <v>35972</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>59872</v>
+        <v>59734</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2115478975201829</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.160235827419979</v>
+        <v>0.1616052210579387</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2689795561988531</v>
+        <v>0.2683590942232708</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>44742</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34190</v>
+        <v>34844</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>56509</v>
+        <v>55629</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3145210103098982</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2403493196562378</v>
+        <v>0.2449437588113202</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3972447725374699</v>
+        <v>0.3910590624665621</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -1836,19 +1836,19 @@
         <v>20399</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13495</v>
+        <v>13443</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29614</v>
+        <v>28994</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2539108843037693</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1679737253119562</v>
+        <v>0.1673361594747322</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3686210008031281</v>
+        <v>0.3609002509323957</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>65</v>
@@ -1857,19 +1857,19 @@
         <v>65140</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>53211</v>
+        <v>52597</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79756</v>
+        <v>78756</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.292645556181867</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2390534080082869</v>
+        <v>0.2362924581270781</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3583081084141149</v>
+        <v>0.3538161924718552</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>53770</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>43117</v>
+        <v>42426</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>65257</v>
+        <v>65393</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3779896431691815</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3031011076620549</v>
+        <v>0.298240759402561</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4587376705271146</v>
+        <v>0.4596933935427152</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -1907,19 +1907,19 @@
         <v>30001</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21867</v>
+        <v>21668</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>39900</v>
+        <v>39841</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3734347850282412</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2721851911372982</v>
+        <v>0.2697069583027854</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4966461747020479</v>
+        <v>0.4959110724209259</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>83</v>
@@ -1928,19 +1928,19 @@
         <v>83771</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>69800</v>
+        <v>70475</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>97099</v>
+        <v>99719</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3763457002030878</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3135775355620186</v>
+        <v>0.3166098838706335</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4362205307013128</v>
+        <v>0.4479924389325983</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>6026</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2005</v>
+        <v>2055</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14340</v>
+        <v>14331</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04223501590131733</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01405412791130906</v>
+        <v>0.0143986233010857</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1005004725983767</v>
+        <v>0.1004319751199363</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2053,19 +2053,19 @@
         <v>7788</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3113</v>
+        <v>3443</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15260</v>
+        <v>15443</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07601604256109441</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03038674391696565</v>
+        <v>0.03361049711736738</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1489554373373461</v>
+        <v>0.1507383583936529</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -2074,19 +2074,19 @@
         <v>13814</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7321</v>
+        <v>7272</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24338</v>
+        <v>24336</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05635277452038303</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0298630915740607</v>
+        <v>0.0296641643238603</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09928125928835589</v>
+        <v>0.09927676423973344</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>10234</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5211</v>
+        <v>5235</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19013</v>
+        <v>17399</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0717224506879949</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03651972797042279</v>
+        <v>0.03668992897876473</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.133247565623291</v>
+        <v>0.1219359574428365</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -2124,19 +2124,19 @@
         <v>15222</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8890</v>
+        <v>8888</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>24308</v>
+        <v>24195</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1485832539267096</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08677097249197969</v>
+        <v>0.08675416236786515</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2372720263171222</v>
+        <v>0.2361727536085293</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>24</v>
@@ -2145,19 +2145,19 @@
         <v>25456</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>16505</v>
+        <v>16821</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>35762</v>
+        <v>36131</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1038440992784951</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06732818748413269</v>
+        <v>0.0686174306882588</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1458854205627835</v>
+        <v>0.147391266244919</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>37284</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>27167</v>
+        <v>26721</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>50447</v>
+        <v>48934</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2612962878825625</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1903935738320312</v>
+        <v>0.1872651298894071</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3535478515412352</v>
+        <v>0.3429416158355726</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -2195,19 +2195,19 @@
         <v>23245</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15671</v>
+        <v>15739</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>31989</v>
+        <v>34152</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.226890925390985</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1529639136379853</v>
+        <v>0.1536252571796057</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3122421661955916</v>
+        <v>0.3333634754269328</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>57</v>
@@ -2216,19 +2216,19 @@
         <v>60529</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>46648</v>
+        <v>47581</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>74440</v>
+        <v>75873</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2469176069813127</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1902940056050577</v>
+        <v>0.1940981199783618</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3036658010154207</v>
+        <v>0.3095143732092318</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>37473</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27068</v>
+        <v>27434</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>49103</v>
+        <v>50268</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2626181184331027</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.189698231303167</v>
+        <v>0.1922611136420068</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.344122740556646</v>
+        <v>0.3522918382281691</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -2266,19 +2266,19 @@
         <v>28767</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20932</v>
+        <v>19479</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39296</v>
+        <v>38945</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2807966487365851</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2043141276573093</v>
+        <v>0.1901364377437117</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3835693815551525</v>
+        <v>0.3801442509897107</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>62</v>
@@ -2287,19 +2287,19 @@
         <v>66240</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54086</v>
+        <v>52219</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>82182</v>
+        <v>80813</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2702152854895887</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2206338954004095</v>
+        <v>0.2130214764539169</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3352487993111844</v>
+        <v>0.3296665082065641</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>51672</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>39935</v>
+        <v>40163</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>65204</v>
+        <v>64189</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3621281270950226</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2798744004489979</v>
+        <v>0.2814711799123265</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4569653492521239</v>
+        <v>0.4498505890510597</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>26</v>
@@ -2337,19 +2337,19 @@
         <v>27427</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19414</v>
+        <v>19330</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>37083</v>
+        <v>37675</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2677131293846259</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1895041548479235</v>
+        <v>0.1886777027092739</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3619658697545978</v>
+        <v>0.3677457368200724</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>72</v>
@@ -2358,19 +2358,19 @@
         <v>79098</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>65267</v>
+        <v>63875</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>94543</v>
+        <v>94135</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3226702337302205</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.266245187050789</v>
+        <v>0.2605694998973574</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3856732510934017</v>
+        <v>0.3840080893250525</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>4136</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10923</v>
+        <v>12165</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05087157792156913</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01293412708012004</v>
+        <v>0.01302006259735729</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1343551016434727</v>
+        <v>0.1496376648780632</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>8</v>
@@ -2483,19 +2483,19 @@
         <v>8518</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3943</v>
+        <v>4005</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14803</v>
+        <v>15535</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1587184071491409</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07347890304721723</v>
+        <v>0.07462353000002021</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2758427590732171</v>
+        <v>0.2894898395026044</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>11</v>
@@ -2504,19 +2504,19 @@
         <v>12653</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6132</v>
+        <v>6305</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>22332</v>
+        <v>21576</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09375421042754579</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04543109333894222</v>
+        <v>0.04671835064584187</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1654660727969376</v>
+        <v>0.1598682524742353</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>18075</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10662</v>
+        <v>11599</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>26865</v>
+        <v>27234</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2223251634553572</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1311476200567011</v>
+        <v>0.1426654429279993</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3304516741519202</v>
+        <v>0.3349859840754461</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>11</v>
@@ -2554,19 +2554,19 @@
         <v>11559</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6728</v>
+        <v>6017</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19096</v>
+        <v>19558</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2153961288579628</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1253664849601749</v>
+        <v>0.1121140771821308</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3558436308089666</v>
+        <v>0.3644507977629818</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>27</v>
@@ -2575,19 +2575,19 @@
         <v>29634</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>20591</v>
+        <v>19202</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>40659</v>
+        <v>39615</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2195700036941531</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.152563386020225</v>
+        <v>0.142274356692592</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3012586336132221</v>
+        <v>0.2935199266059404</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>18451</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12009</v>
+        <v>11001</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26677</v>
+        <v>26629</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2269530459788872</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1477188867515241</v>
+        <v>0.1353094928080075</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.328132189959531</v>
+        <v>0.3275418900192854</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -2625,19 +2625,19 @@
         <v>10712</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5841</v>
+        <v>5719</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17393</v>
+        <v>17947</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1996129690036073</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1088329873900201</v>
+        <v>0.106574416578688</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3241102728571035</v>
+        <v>0.3344316053528505</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>28</v>
@@ -2646,19 +2646,19 @@
         <v>29163</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20464</v>
+        <v>20302</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>40441</v>
+        <v>38828</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2160819384830693</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1516274676949216</v>
+        <v>0.150423050146286</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2996439231645049</v>
+        <v>0.2876891238981302</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>12852</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7073</v>
+        <v>6995</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>20007</v>
+        <v>21449</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1580863202195995</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08700241515467558</v>
+        <v>0.08603479272833098</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2460929115278589</v>
+        <v>0.2638271613355441</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>10</v>
@@ -2696,19 +2696,19 @@
         <v>9951</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5107</v>
+        <v>4977</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>16045</v>
+        <v>16133</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.185434615341038</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0951699833247599</v>
+        <v>0.09273426142791807</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2989888376044887</v>
+        <v>0.3006176981210328</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>22</v>
@@ -2717,19 +2717,19 @@
         <v>22804</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>14694</v>
+        <v>14985</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>32529</v>
+        <v>32512</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1689606954586057</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1088729583659873</v>
+        <v>0.1110303660771016</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2410172069375712</v>
+        <v>0.2408950410977103</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>27785</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>18982</v>
+        <v>19690</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>37051</v>
+        <v>38020</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.341763892424587</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.233486447406112</v>
+        <v>0.2421899385187967</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.45573970642319</v>
+        <v>0.4676534520185537</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -2767,19 +2767,19 @@
         <v>12925</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7569</v>
+        <v>7693</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>20036</v>
+        <v>19569</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.240837879648251</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1410377506596399</v>
+        <v>0.143343386282278</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3733598938446213</v>
+        <v>0.3646526277349022</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>38</v>
@@ -2788,19 +2788,19 @@
         <v>40710</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30336</v>
+        <v>30267</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>52273</v>
+        <v>52340</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.301633151936626</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2247705659068324</v>
+        <v>0.2242625675615653</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3873131132989918</v>
+        <v>0.3878042718900339</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>7728</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3082</v>
+        <v>3018</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>15756</v>
+        <v>16559</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06534033574721128</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02606344721559516</v>
+        <v>0.02552267488561836</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1332267507309456</v>
+        <v>0.1400160140166216</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>8</v>
@@ -2913,19 +2913,19 @@
         <v>8046</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3890</v>
+        <v>3223</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14305</v>
+        <v>13957</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1481247428239927</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07161429361208001</v>
+        <v>0.05933628480310969</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2633573838702332</v>
+        <v>0.2569416889624072</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>14</v>
@@ -2934,19 +2934,19 @@
         <v>15774</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>9491</v>
+        <v>9192</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>26467</v>
+        <v>25857</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.09139578254502762</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05499038327369159</v>
+        <v>0.05326295503038136</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1533562268385403</v>
+        <v>0.1498203810360313</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>5787</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1913</v>
+        <v>1949</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>14138</v>
+        <v>14542</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04893321766797189</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01617255596941073</v>
+        <v>0.01648368360497279</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1195399746873065</v>
+        <v>0.1229579947554998</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>5787</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1901</v>
+        <v>1817</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>14738</v>
+        <v>13536</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03353204618393522</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01101313499262042</v>
+        <v>0.010527253917703</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08539345008273833</v>
+        <v>0.07842968738974172</v>
       </c>
     </row>
     <row r="36">
@@ -3026,19 +3026,19 @@
         <v>21596</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>13485</v>
+        <v>13627</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>32784</v>
+        <v>33014</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1826036287546383</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1140206994201504</v>
+        <v>0.115224824630611</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2772059244640972</v>
+        <v>0.2791493633230554</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>8</v>
@@ -3047,19 +3047,19 @@
         <v>7754</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3803</v>
+        <v>3768</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>13701</v>
+        <v>13816</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1427579980744564</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07001576735021665</v>
+        <v>0.06936760970373146</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2522260990266558</v>
+        <v>0.2543495967014253</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>26</v>
@@ -3068,19 +3068,19 @@
         <v>29350</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>20194</v>
+        <v>19560</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>40478</v>
+        <v>41204</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1700626715022658</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1170073421555324</v>
+        <v>0.1133334861454569</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2345417870734678</v>
+        <v>0.2387432843869308</v>
       </c>
     </row>
     <row r="37">
@@ -3097,19 +3097,19 @@
         <v>21762</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>14327</v>
+        <v>13482</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>31192</v>
+        <v>31528</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1840085712818578</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1211397481711587</v>
+        <v>0.1139958766824973</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2637427656466516</v>
+        <v>0.266587144523981</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>13</v>
@@ -3118,19 +3118,19 @@
         <v>13001</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>7325</v>
+        <v>7554</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>20316</v>
+        <v>19765</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2393495717393928</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1348438997963611</v>
+        <v>0.139072950623196</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3740201824973391</v>
+        <v>0.3638737164694341</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>34</v>
@@ -3139,19 +3139,19 @@
         <v>34763</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25074</v>
+        <v>25155</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>45778</v>
+        <v>45779</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2014265192273188</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1452824213709807</v>
+        <v>0.1457561190726821</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2652471782587936</v>
+        <v>0.265253657485406</v>
       </c>
     </row>
     <row r="38">
@@ -3168,19 +3168,19 @@
         <v>61394</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>48504</v>
+        <v>50596</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>72272</v>
+        <v>73293</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5191142465483207</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4101247253577678</v>
+        <v>0.4278147916075596</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6110985501567123</v>
+        <v>0.6197275817574951</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>22</v>
@@ -3189,19 +3189,19 @@
         <v>25517</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>17487</v>
+        <v>18480</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>33150</v>
+        <v>34177</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4697676873621581</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3219364371931184</v>
+        <v>0.34020753424939</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6102821760990969</v>
+        <v>0.6291908592766698</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>81</v>
@@ -3210,19 +3210,19 @@
         <v>86911</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>72726</v>
+        <v>74121</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>99597</v>
+        <v>102322</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5035829805414526</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4213908951214242</v>
+        <v>0.4294751499214476</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.577088120707127</v>
+        <v>0.5928777404601779</v>
       </c>
     </row>
     <row r="39">
@@ -3314,19 +3314,19 @@
         <v>20422</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>12536</v>
+        <v>11947</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>31923</v>
+        <v>33098</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.07562065078912301</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04641907338421229</v>
+        <v>0.04424022183621065</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1182098354884785</v>
+        <v>0.1225609959106674</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>23</v>
@@ -3335,19 +3335,19 @@
         <v>23227</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>15728</v>
+        <v>14861</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>33514</v>
+        <v>32888</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1288647327709357</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08726094116039207</v>
+        <v>0.08244844193279585</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1859376716257506</v>
+        <v>0.1824689825948046</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>41</v>
@@ -3356,19 +3356,19 @@
         <v>43649</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>32249</v>
+        <v>31634</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>57304</v>
+        <v>58471</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.09693269185024622</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07161654575638801</v>
+        <v>0.07025185811275343</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1272579059639107</v>
+        <v>0.1298505074515524</v>
       </c>
     </row>
     <row r="41">
@@ -3385,19 +3385,19 @@
         <v>13341</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7345</v>
+        <v>7122</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>21570</v>
+        <v>22064</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.04939983898322552</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02719767505985443</v>
+        <v>0.02637173012922756</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07987117068929754</v>
+        <v>0.0816998547428648</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>7</v>
@@ -3406,19 +3406,19 @@
         <v>8115</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>3259</v>
+        <v>3165</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>16146</v>
+        <v>16293</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0450237030634824</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01808053465976977</v>
+        <v>0.01756012566746071</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.08958024434295755</v>
+        <v>0.0903947713630178</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>20</v>
@@ -3427,19 +3427,19 @@
         <v>21456</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>13703</v>
+        <v>13984</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>33196</v>
+        <v>32559</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04764820039844385</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03043111595857285</v>
+        <v>0.03105445754999529</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.07372015210090362</v>
+        <v>0.07230629354799636</v>
       </c>
     </row>
     <row r="42">
@@ -3456,19 +3456,19 @@
         <v>66773</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>52776</v>
+        <v>51106</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>83446</v>
+        <v>83817</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2472562714612112</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1954250110038867</v>
+        <v>0.1892397543452515</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3089949329625611</v>
+        <v>0.3103681731086578</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>37</v>
@@ -3477,19 +3477,19 @@
         <v>41576</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>31066</v>
+        <v>29945</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>54352</v>
+        <v>53990</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2306689851548759</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1723579023971722</v>
+        <v>0.1661379567540165</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3015511768330774</v>
+        <v>0.2995438393958979</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>98</v>
@@ -3498,19 +3498,19 @@
         <v>108349</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>91033</v>
+        <v>90132</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>128290</v>
+        <v>126674</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2406168682882167</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2021621064779988</v>
+        <v>0.2001601169037793</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2849012902503119</v>
+        <v>0.2813114876708629</v>
       </c>
     </row>
     <row r="43">
@@ -3527,19 +3527,19 @@
         <v>67415</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>54059</v>
+        <v>53709</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>83151</v>
+        <v>84458</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2496327339497287</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2001774198956586</v>
+        <v>0.1988803191213272</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3079020541363217</v>
+        <v>0.3127416710695935</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>34</v>
@@ -3548,19 +3548,19 @@
         <v>36403</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>25727</v>
+        <v>26436</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>48234</v>
+        <v>49108</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2019666535342155</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.14273883840276</v>
+        <v>0.1466704309454618</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2676062883512668</v>
+        <v>0.2724577439910705</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>99</v>
@@ -3569,19 +3569,19 @@
         <v>103818</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>86045</v>
+        <v>86158</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>124875</v>
+        <v>122361</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.23055340296633</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1910837246807275</v>
+        <v>0.191336305774545</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2773167683018655</v>
+        <v>0.2717326304333769</v>
       </c>
     </row>
     <row r="44">
@@ -3598,19 +3598,19 @@
         <v>102106</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>85838</v>
+        <v>84995</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>120057</v>
+        <v>118847</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3780905048167116</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3178527197812603</v>
+        <v>0.314728245748201</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4445626032034758</v>
+        <v>0.4400828998326435</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>68</v>
@@ -3619,19 +3619,19 @@
         <v>70920</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>57533</v>
+        <v>58827</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>84326</v>
+        <v>84259</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3934759254764905</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3192012799166719</v>
+        <v>0.3263820828969384</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4678517170794446</v>
+        <v>0.4674792884576974</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>162</v>
@@ -3640,19 +3640,19 @@
         <v>173026</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>153988</v>
+        <v>153262</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>195623</v>
+        <v>197764</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3842488364967632</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3419691326378871</v>
+        <v>0.3403559328789851</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4344294543820766</v>
+        <v>0.4391856421327274</v>
       </c>
     </row>
     <row r="45">
@@ -3744,19 +3744,19 @@
         <v>16806</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>9475</v>
+        <v>9365</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>27639</v>
+        <v>28698</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.04678572772330596</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02637747490234567</v>
+        <v>0.02606990095514784</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.07694402678986109</v>
+        <v>0.07989232321618561</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>13</v>
@@ -3765,19 +3765,19 @@
         <v>15495</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>8550</v>
+        <v>8420</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>26645</v>
+        <v>26473</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.05991847301972282</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.03305982988453552</v>
+        <v>0.03256007158256547</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1030333807357506</v>
+        <v>0.1023675732566962</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>27</v>
@@ -3786,19 +3786,19 @@
         <v>32301</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>20931</v>
+        <v>21295</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>45940</v>
+        <v>48181</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.05228286851524544</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.03387847265420008</v>
+        <v>0.03446789907039129</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.07435811063287037</v>
+        <v>0.07798619666556873</v>
       </c>
     </row>
     <row r="47">
@@ -3815,19 +3815,19 @@
         <v>22144</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>13797</v>
+        <v>13637</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>33750</v>
+        <v>33130</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.06164593223722062</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.03840929326052597</v>
+        <v>0.0379628646919534</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.09395605216571182</v>
+        <v>0.09223051980101833</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>17</v>
@@ -3836,19 +3836,19 @@
         <v>19460</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>11272</v>
+        <v>11616</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>29509</v>
+        <v>30529</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.07524927961067866</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.04358906542672041</v>
+        <v>0.04491566083194488</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1141073486810162</v>
+        <v>0.1180504120606527</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>37</v>
@@ -3857,19 +3857,19 @@
         <v>41604</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>30348</v>
+        <v>29540</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>57611</v>
+        <v>55812</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.06734005894612451</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.04912042745780573</v>
+        <v>0.04781303853618954</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.0932495804708901</v>
+        <v>0.0903367029069</v>
       </c>
     </row>
     <row r="48">
@@ -3886,19 +3886,19 @@
         <v>82695</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>68105</v>
+        <v>66076</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>98193</v>
+        <v>99775</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2302131977034686</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1895966183041635</v>
+        <v>0.1839485797694708</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.273358818976247</v>
+        <v>0.277762295960111</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>52</v>
@@ -3907,19 +3907,19 @@
         <v>57793</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>44333</v>
+        <v>44424</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>73831</v>
+        <v>73555</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.223478430175559</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1714290290380139</v>
+        <v>0.171780330441227</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2854957830397895</v>
+        <v>0.2844261042699226</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>131</v>
@@ -3928,19 +3928,19 @@
         <v>140488</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>121572</v>
+        <v>119147</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>162999</v>
+        <v>164357</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2273941401137351</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1967753527787325</v>
+        <v>0.1928515535113156</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2638299976124506</v>
+        <v>0.2660275556931727</v>
       </c>
     </row>
     <row r="49">
@@ -3957,19 +3957,19 @@
         <v>136167</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>116675</v>
+        <v>117454</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>156285</v>
+        <v>154194</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3790721576090446</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3248090855633756</v>
+        <v>0.326977993440615</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4350790934128484</v>
+        <v>0.4292579659326376</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>75</v>
@@ -3978,19 +3978,19 @@
         <v>79353</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>64997</v>
+        <v>64624</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>97424</v>
+        <v>95722</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3068473830796812</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2513355529926245</v>
+        <v>0.249890360717496</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3767237240136807</v>
+        <v>0.3701432915273192</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>201</v>
@@ -3999,19 +3999,19 @@
         <v>215520</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>191401</v>
+        <v>189981</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>239753</v>
+        <v>241950</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3488401120395381</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3098012265544814</v>
+        <v>0.3075027395992893</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3880630134429015</v>
+        <v>0.3916202698671301</v>
       </c>
     </row>
     <row r="50">
@@ -4028,19 +4028,19 @@
         <v>101399</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>84188</v>
+        <v>85561</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>118736</v>
+        <v>121842</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2822829847269603</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2343694309826842</v>
+        <v>0.238191534695848</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3305472845652258</v>
+        <v>0.3391935985501096</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>77</v>
@@ -4049,19 +4049,19 @@
         <v>86506</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>71230</v>
+        <v>70816</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>102338</v>
+        <v>104717</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3345064341143583</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2754367219835054</v>
+        <v>0.273836767434914</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3957266503297487</v>
+        <v>0.4049274137224809</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>172</v>
@@ -4070,19 +4070,19 @@
         <v>187905</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>163052</v>
+        <v>164132</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>210250</v>
+        <v>210347</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3041428203853568</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2639148537773332</v>
+        <v>0.2656631816947287</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3403102310017242</v>
+        <v>0.3404675792706945</v>
       </c>
     </row>
     <row r="51">
@@ -4174,19 +4174,19 @@
         <v>97602</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>79159</v>
+        <v>78069</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>118892</v>
+        <v>121450</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.06917551775173501</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.0561036718765112</v>
+        <v>0.05533122847651262</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.0842642257905767</v>
+        <v>0.08607765889398324</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>85</v>
@@ -4195,19 +4195,19 @@
         <v>91047</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>74807</v>
+        <v>75348</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>111646</v>
+        <v>112462</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.09711506613025163</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0797932107809379</v>
+        <v>0.08037035407623977</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1190879168433986</v>
+        <v>0.1199578275032983</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>172</v>
@@ -4216,19 +4216,19 @@
         <v>188649</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>166354</v>
+        <v>163809</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>220157</v>
+        <v>218186</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.08032912259344151</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.07083569750895219</v>
+        <v>0.0697518082493831</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.09374564279069238</v>
+        <v>0.0929063831753089</v>
       </c>
     </row>
     <row r="53">
@@ -4245,19 +4245,19 @@
         <v>99167</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>81063</v>
+        <v>79352</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>121341</v>
+        <v>119809</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.0702842266069142</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.05745301085602771</v>
+        <v>0.05624087130972977</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.08600002957834998</v>
+        <v>0.0849143102156393</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>61</v>
@@ -4266,19 +4266,19 @@
         <v>68247</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>54010</v>
+        <v>52017</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>88246</v>
+        <v>85538</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.07279570057253092</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.05760980716384189</v>
+        <v>0.05548357300067637</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.09412778776578273</v>
+        <v>0.0912398443259604</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>153</v>
@@ -4287,19 +4287,19 @@
         <v>167413</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>141046</v>
+        <v>141337</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>194613</v>
+        <v>197075</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.07128681934045536</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.06005920636695736</v>
+        <v>0.06018301111485837</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.08286867849163605</v>
+        <v>0.08391691947186557</v>
       </c>
     </row>
     <row r="54">
@@ -4316,19 +4316,19 @@
         <v>295209</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>266044</v>
+        <v>262375</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>328350</v>
+        <v>326027</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.209228841909186</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1885587373122231</v>
+        <v>0.1859577376081825</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2327179043119487</v>
+        <v>0.2310716042632271</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>177</v>
@@ -4337,19 +4337,19 @@
         <v>196235</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>170986</v>
+        <v>170877</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>222420</v>
+        <v>225505</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2093147349638375</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1823823993150804</v>
+        <v>0.1822669762962784</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2372446876588153</v>
+        <v>0.2405357418768606</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>457</v>
@@ -4358,19 +4358,19 @@
         <v>491444</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>448665</v>
+        <v>451706</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>530664</v>
+        <v>534540</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2092631308381712</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1910475539283355</v>
+        <v>0.1923422309935452</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2259635499582369</v>
+        <v>0.2276141677438585</v>
       </c>
     </row>
     <row r="55">
@@ -4387,19 +4387,19 @@
         <v>356282</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>325403</v>
+        <v>325154</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>393927</v>
+        <v>392313</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2525144692161989</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2306290551374445</v>
+        <v>0.2304525111875575</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2791954424623125</v>
+        <v>0.2780511046509065</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>198</v>
@@ -4408,19 +4408,19 @@
         <v>208918</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>185359</v>
+        <v>185246</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>235624</v>
+        <v>237519</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2228435255668512</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1977139595461107</v>
+        <v>0.1975936084823051</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2513292966919356</v>
+        <v>0.2533504931916201</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>537</v>
@@ -4429,19 +4429,19 @@
         <v>565200</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>524972</v>
+        <v>521424</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>613504</v>
+        <v>608172</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2406696828845833</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2235400721634405</v>
+        <v>0.222029104685677</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2612380574133698</v>
+        <v>0.258967307113166</v>
       </c>
     </row>
     <row r="56">
@@ -4458,19 +4458,19 @@
         <v>562677</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>522823</v>
+        <v>527060</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>601066</v>
+        <v>602154</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.398796944515966</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3705499123378457</v>
+        <v>0.3735534481658002</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.426004967175653</v>
+        <v>0.4267761434333499</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>344</v>
@@ -4479,19 +4479,19 @@
         <v>373065</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>341243</v>
+        <v>343822</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>404742</v>
+        <v>403127</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.3979309727665287</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.3639878851496584</v>
+        <v>0.3667383552326129</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.4317191839324682</v>
+        <v>0.4299969843769368</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>870</v>
@@ -4500,19 +4500,19 @@
         <v>935742</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>888595</v>
+        <v>888394</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>985590</v>
+        <v>984407</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.3984512443433486</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.3783754193276769</v>
+        <v>0.3782895566944692</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.4196770029050899</v>
+        <v>0.4191732024818551</v>
       </c>
     </row>
     <row r="57">
@@ -4848,19 +4848,19 @@
         <v>41346</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30041</v>
+        <v>29706</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53214</v>
+        <v>53196</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3107534137260766</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2257841933178282</v>
+        <v>0.2232709365194675</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3999495165799958</v>
+        <v>0.3998161874332776</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -4869,19 +4869,19 @@
         <v>25178</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17543</v>
+        <v>17977</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36251</v>
+        <v>35400</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2515992672094631</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1753032695786773</v>
+        <v>0.1796440382473751</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3622564535461439</v>
+        <v>0.3537486314166282</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -4890,19 +4890,19 @@
         <v>66523</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52199</v>
+        <v>52217</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82036</v>
+        <v>80674</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2853608033623585</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2239133535484544</v>
+        <v>0.2239933035848006</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3519053591677748</v>
+        <v>0.3460600881570591</v>
       </c>
     </row>
     <row r="5">
@@ -4919,19 +4919,19 @@
         <v>13925</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8719</v>
+        <v>7661</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22758</v>
+        <v>21617</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.104661923162378</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06553150833596223</v>
+        <v>0.05757643664983523</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1710440497575637</v>
+        <v>0.1624745037849193</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -4940,19 +4940,19 @@
         <v>12129</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6656</v>
+        <v>6232</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20308</v>
+        <v>20281</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1212003318471923</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06651804487233996</v>
+        <v>0.06227237154843791</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2029366642593829</v>
+        <v>0.2026730082045117</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>26</v>
@@ -4961,19 +4961,19 @@
         <v>26054</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18210</v>
+        <v>17341</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37405</v>
+        <v>37063</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1117612288323783</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07811353511797521</v>
+        <v>0.07438602606896418</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1604519156684509</v>
+        <v>0.158988911691887</v>
       </c>
     </row>
     <row r="6">
@@ -4990,19 +4990,19 @@
         <v>19253</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11508</v>
+        <v>11346</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29642</v>
+        <v>29841</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1447032868686836</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08649230789450092</v>
+        <v>0.08527185529989466</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2227865995206319</v>
+        <v>0.2242816630579751</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -5011,19 +5011,19 @@
         <v>8824</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4297</v>
+        <v>4397</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15899</v>
+        <v>16363</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08817491021173494</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04293617975624894</v>
+        <v>0.04393652444132508</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.158878578815008</v>
+        <v>0.1635184455112383</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -5032,19 +5032,19 @@
         <v>28076</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18909</v>
+        <v>18174</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>39894</v>
+        <v>39248</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.120437818977261</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08111224682225152</v>
+        <v>0.07795865048496209</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.171132676167551</v>
+        <v>0.168361289067829</v>
       </c>
     </row>
     <row r="7">
@@ -5061,19 +5061,19 @@
         <v>15554</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8795</v>
+        <v>9165</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24721</v>
+        <v>25494</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1169059768152478</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.066099990398331</v>
+        <v>0.06888694866609144</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1858043397865607</v>
+        <v>0.1916070672230771</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -5082,19 +5082,19 @@
         <v>13490</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7829</v>
+        <v>7589</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21464</v>
+        <v>21031</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1348090009676358</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07823514232896162</v>
+        <v>0.07583520729585659</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2144906898028637</v>
+        <v>0.2101648308743901</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -5103,19 +5103,19 @@
         <v>29045</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19514</v>
+        <v>20103</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40419</v>
+        <v>39890</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1245910596607276</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08370864066267358</v>
+        <v>0.08623645517804081</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1733839006616138</v>
+        <v>0.1711154154284298</v>
       </c>
     </row>
     <row r="8">
@@ -5132,19 +5132,19 @@
         <v>42972</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>31912</v>
+        <v>32478</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>54481</v>
+        <v>54576</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.322975399427614</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2398492987673553</v>
+        <v>0.2441016417932696</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4094743349184057</v>
+        <v>0.4101865048296969</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>38</v>
@@ -5153,19 +5153,19 @@
         <v>40450</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>30781</v>
+        <v>30754</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50298</v>
+        <v>51291</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4042164897639737</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3075950338157612</v>
+        <v>0.3073287516086349</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5026313720432742</v>
+        <v>0.5125481714658916</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>77</v>
@@ -5174,19 +5174,19 @@
         <v>83422</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>68493</v>
+        <v>68819</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>99313</v>
+        <v>99424</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3578490891672746</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2938104498180296</v>
+        <v>0.2952077831908159</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4260160598248831</v>
+        <v>0.4264913648302378</v>
       </c>
     </row>
     <row r="9">
@@ -5278,19 +5278,19 @@
         <v>19950</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12192</v>
+        <v>12768</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30785</v>
+        <v>30224</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1171478150186415</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07159435586108173</v>
+        <v>0.07497478338013694</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1807712925871111</v>
+        <v>0.1774794676173501</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -5299,19 +5299,19 @@
         <v>18837</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11720</v>
+        <v>11955</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27746</v>
+        <v>27610</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1657029703500182</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.103099692443833</v>
+        <v>0.1051625369005487</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2440702583551312</v>
+        <v>0.2428751009451392</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -5320,19 +5320,19 @@
         <v>38787</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27797</v>
+        <v>27322</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53115</v>
+        <v>51903</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1365851632498844</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0978858258415304</v>
+        <v>0.09621054656406994</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1870402068585665</v>
+        <v>0.1827717587075521</v>
       </c>
     </row>
     <row r="11">
@@ -5349,19 +5349,19 @@
         <v>22045</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14475</v>
+        <v>14341</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33190</v>
+        <v>32422</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.12944822783572</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0849989283708124</v>
+        <v>0.08421366801819465</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1948940865964276</v>
+        <v>0.1903867206769143</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -5370,19 +5370,19 @@
         <v>11585</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6264</v>
+        <v>6294</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19223</v>
+        <v>19332</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1019084474791172</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05510533890665746</v>
+        <v>0.05536299795661866</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.169098674049332</v>
+        <v>0.1700593962566303</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>31</v>
@@ -5391,19 +5391,19 @@
         <v>33630</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>22850</v>
+        <v>23499</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>46537</v>
+        <v>46162</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1184236456394539</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08046459286391643</v>
+        <v>0.08274863815630647</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1638761608971789</v>
+        <v>0.1625555172207789</v>
       </c>
     </row>
     <row r="12">
@@ -5420,19 +5420,19 @@
         <v>34057</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24806</v>
+        <v>24640</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>46271</v>
+        <v>45851</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.199983630693042</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1456633703992769</v>
+        <v>0.1446879900277376</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2717093410753413</v>
+        <v>0.2692400519665852</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -5441,19 +5441,19 @@
         <v>27260</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19078</v>
+        <v>19226</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38554</v>
+        <v>38096</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2397945533068214</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1678235907864425</v>
+        <v>0.1691236069229734</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3391462568056776</v>
+        <v>0.3351153598750746</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>58</v>
@@ -5462,19 +5462,19 @@
         <v>61316</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>48486</v>
+        <v>47252</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>76699</v>
+        <v>76273</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2159205329842606</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1707391585331723</v>
+        <v>0.1663928312995354</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2700873739531215</v>
+        <v>0.2685899823201352</v>
       </c>
     </row>
     <row r="13">
@@ -5491,19 +5491,19 @@
         <v>33416</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22877</v>
+        <v>23874</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44112</v>
+        <v>44561</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.196219133020659</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1343355231012231</v>
+        <v>0.1401875139504077</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.259032408200384</v>
+        <v>0.2616662364720398</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -5512,19 +5512,19 @@
         <v>9902</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4870</v>
+        <v>4943</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16971</v>
+        <v>16998</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08710220281492995</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04284135223225131</v>
+        <v>0.04348020848445002</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1492872510195057</v>
+        <v>0.149523858884778</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -5533,19 +5533,19 @@
         <v>43317</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31992</v>
+        <v>32572</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>57806</v>
+        <v>57435</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1525380088257496</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.11265866260189</v>
+        <v>0.1146984882867916</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2035589290836903</v>
+        <v>0.2022540212676892</v>
       </c>
     </row>
     <row r="14">
@@ -5562,19 +5562,19 @@
         <v>60830</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>48318</v>
+        <v>48687</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>75536</v>
+        <v>74425</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3572011934319375</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2837267546671085</v>
+        <v>0.2858955046211405</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4435541711619886</v>
+        <v>0.4370308481279642</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -5583,19 +5583,19 @@
         <v>46096</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36276</v>
+        <v>36181</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56385</v>
+        <v>56980</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4054918260491132</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3191032071824097</v>
+        <v>0.3182726082862772</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4959964304522697</v>
+        <v>0.5012284820094401</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>100</v>
@@ -5604,19 +5604,19 @@
         <v>106927</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>89429</v>
+        <v>89056</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>122900</v>
+        <v>124112</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3765326493006515</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3149151477308293</v>
+        <v>0.3136017749279381</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4327814489562714</v>
+        <v>0.4370485121366872</v>
       </c>
     </row>
     <row r="15">
@@ -5708,19 +5708,19 @@
         <v>15269</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8605</v>
+        <v>9293</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24294</v>
+        <v>25332</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1215794670639929</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06851768075579664</v>
+        <v>0.07399418562096048</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1934379592300443</v>
+        <v>0.2017045023927765</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -5729,19 +5729,19 @@
         <v>10429</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5467</v>
+        <v>5990</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17580</v>
+        <v>17616</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1236697742152641</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06482355710701146</v>
+        <v>0.07102284278116375</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2084601091069773</v>
+        <v>0.2088821630802947</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -5750,19 +5750,19 @@
         <v>25698</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18231</v>
+        <v>17539</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35957</v>
+        <v>35563</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1224192187978268</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08684667440935548</v>
+        <v>0.08354954601662436</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1712886979344944</v>
+        <v>0.1694087774567707</v>
       </c>
     </row>
     <row r="17">
@@ -5779,19 +5779,19 @@
         <v>22050</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14955</v>
+        <v>14605</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31074</v>
+        <v>32048</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1755750384740364</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1190815639051075</v>
+        <v>0.1162903702120187</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2474262786953917</v>
+        <v>0.2551851462888679</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -5800,19 +5800,19 @@
         <v>11167</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5890</v>
+        <v>5703</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17905</v>
+        <v>17923</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1324197113162212</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.069837672753382</v>
+        <v>0.06762723885630348</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2123146739586638</v>
+        <v>0.2125293681651606</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -5821,19 +5821,19 @@
         <v>33218</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>23749</v>
+        <v>24064</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43599</v>
+        <v>44240</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1582379878961331</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1131330074977137</v>
+        <v>0.1146346108609219</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2076893734863738</v>
+        <v>0.2107439018938431</v>
       </c>
     </row>
     <row r="18">
@@ -5850,19 +5850,19 @@
         <v>39332</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30144</v>
+        <v>29750</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50184</v>
+        <v>49670</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3131839471091539</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2400236710570668</v>
+        <v>0.2368814964729259</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3995917916107475</v>
+        <v>0.3954992324274472</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>22</v>
@@ -5871,19 +5871,19 @@
         <v>20736</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14378</v>
+        <v>14249</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29683</v>
+        <v>29429</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2458876792602279</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1704956902416415</v>
+        <v>0.1689553448975436</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3519763627762074</v>
+        <v>0.3489641958190813</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>64</v>
@@ -5892,19 +5892,19 @@
         <v>60069</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>47421</v>
+        <v>47923</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>72562</v>
+        <v>74514</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2861486104255883</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2258964672915295</v>
+        <v>0.2282884221231559</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3456596316439555</v>
+        <v>0.3549596572506717</v>
       </c>
     </row>
     <row r="19">
@@ -5921,19 +5921,19 @@
         <v>30768</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21483</v>
+        <v>21607</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40664</v>
+        <v>40852</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2449866069835127</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1710581633265911</v>
+        <v>0.1720466725977437</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3237893130055959</v>
+        <v>0.3252819797317268</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -5942,19 +5942,19 @@
         <v>29868</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22318</v>
+        <v>22100</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39520</v>
+        <v>39782</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3541712483867396</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2646423193582547</v>
+        <v>0.2620578339446116</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4686218342617835</v>
+        <v>0.4717288787269497</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -5963,19 +5963,19 @@
         <v>60636</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48249</v>
+        <v>47738</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>73304</v>
+        <v>73237</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2888500133114422</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2298438115259221</v>
+        <v>0.2274067210787652</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3491946573599187</v>
+        <v>0.3488781956958011</v>
       </c>
     </row>
     <row r="20">
@@ -5992,19 +5992,19 @@
         <v>18170</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10994</v>
+        <v>11304</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27421</v>
+        <v>27425</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.144674940369304</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08753922291137178</v>
+        <v>0.09000906440323279</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2183391351412159</v>
+        <v>0.2183684622353539</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -6013,19 +6013,19 @@
         <v>12131</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6615</v>
+        <v>6861</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19620</v>
+        <v>20142</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1438515868215472</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07844055633036137</v>
+        <v>0.08135329991521041</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2326477726377926</v>
+        <v>0.238839251200115</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>31</v>
@@ -6034,19 +6034,19 @@
         <v>30301</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>21093</v>
+        <v>21768</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>41653</v>
+        <v>41881</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1443441695690096</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1004786413701469</v>
+        <v>0.1036957098992084</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1984235655570065</v>
+        <v>0.1995077495271948</v>
       </c>
     </row>
     <row r="21">
@@ -6138,19 +6138,19 @@
         <v>14000</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8152</v>
+        <v>7938</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22969</v>
+        <v>23277</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1248010874552462</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07267078257392931</v>
+        <v>0.07075848996019891</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2047526946856442</v>
+        <v>0.2074952986005142</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -6159,19 +6159,19 @@
         <v>11618</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6189</v>
+        <v>5866</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19785</v>
+        <v>18936</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1419273424852193</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07560861391062855</v>
+        <v>0.0716554306037722</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2416957932305054</v>
+        <v>0.2313224269486562</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -6180,19 +6180,19 @@
         <v>25618</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16709</v>
+        <v>16524</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35998</v>
+        <v>37107</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1320261042277045</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08611170014050201</v>
+        <v>0.08515892678885678</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1855180133590226</v>
+        <v>0.1912335343389982</v>
       </c>
     </row>
     <row r="23">
@@ -6209,19 +6209,19 @@
         <v>7602</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2993</v>
+        <v>2711</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15296</v>
+        <v>14952</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06776816658984303</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02667713042201272</v>
+        <v>0.02416577787207324</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1363553251294461</v>
+        <v>0.1332878028664864</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -6230,19 +6230,19 @@
         <v>4926</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1589</v>
+        <v>1538</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>12072</v>
+        <v>12014</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0601758591226117</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01941114059001011</v>
+        <v>0.0187937742878193</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1474734954280333</v>
+        <v>0.1467660003930373</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>11</v>
@@ -6251,19 +6251,19 @@
         <v>12528</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6108</v>
+        <v>6606</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20421</v>
+        <v>21747</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06456521599168807</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03147614411311567</v>
+        <v>0.03404455664481318</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1052437790212745</v>
+        <v>0.1120769203768987</v>
       </c>
     </row>
     <row r="24">
@@ -6280,19 +6280,19 @@
         <v>19372</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12622</v>
+        <v>12007</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29522</v>
+        <v>28500</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1726874622426184</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1125177528759311</v>
+        <v>0.1070349785671253</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2631676793360799</v>
+        <v>0.2540591151671343</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -6301,19 +6301,19 @@
         <v>11709</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6560</v>
+        <v>6752</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>19012</v>
+        <v>18868</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1430408350459849</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08013321808236049</v>
+        <v>0.08247930945169242</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2322565932822234</v>
+        <v>0.2304923680938693</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>31</v>
@@ -6322,19 +6322,19 @@
         <v>31081</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>21304</v>
+        <v>22284</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>41913</v>
+        <v>41951</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.160180502701982</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1097920572022557</v>
+        <v>0.1148422045780378</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2160034307643525</v>
+        <v>0.2162010972797422</v>
       </c>
     </row>
     <row r="25">
@@ -6351,19 +6351,19 @@
         <v>14828</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8101</v>
+        <v>8160</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23784</v>
+        <v>23045</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1321779009624727</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07221445055449836</v>
+        <v>0.07273896726656298</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2120152987356783</v>
+        <v>0.2054325146536674</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -6372,19 +6372,19 @@
         <v>13094</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8205</v>
+        <v>7140</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21082</v>
+        <v>20423</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1599607344240339</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1002328267800338</v>
+        <v>0.08722202658322052</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2575427165601673</v>
+        <v>0.24949296533634</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>27</v>
@@ -6393,19 +6393,19 @@
         <v>27922</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19129</v>
+        <v>19582</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>39645</v>
+        <v>39186</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1438985858054164</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09858222960315315</v>
+        <v>0.100915952613992</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2043162941418498</v>
+        <v>0.2019492623793836</v>
       </c>
     </row>
     <row r="26">
@@ -6422,19 +6422,19 @@
         <v>56378</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>45126</v>
+        <v>46071</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>67253</v>
+        <v>68093</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5025653827498198</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4022666492541321</v>
+        <v>0.4106873438576946</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5995109792483726</v>
+        <v>0.6069979930517845</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>38</v>
@@ -6443,19 +6443,19 @@
         <v>40512</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>31071</v>
+        <v>31715</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>49951</v>
+        <v>50297</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4948952289221502</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3795615208519757</v>
+        <v>0.3874321295995935</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.61020569040095</v>
+        <v>0.6144390620340334</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>90</v>
@@ -6464,19 +6464,19 @@
         <v>96889</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>83242</v>
+        <v>81497</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>111477</v>
+        <v>111644</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4993295912732091</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4289946769213096</v>
+        <v>0.42000063776425</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5745091025097447</v>
+        <v>0.5753697926193208</v>
       </c>
     </row>
     <row r="27">
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6565</v>
+        <v>6705</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02279663229664746</v>
@@ -6580,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0811220908951449</v>
+        <v>0.08284401620031891</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -6589,19 +6589,19 @@
         <v>4107</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10095</v>
+        <v>9793</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07410097289040002</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01735519896092476</v>
+        <v>0.01722102728800048</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1821576535966184</v>
+        <v>0.1767174926505145</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -6610,19 +6610,19 @@
         <v>5951</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2402</v>
+        <v>2331</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12819</v>
+        <v>12625</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.043649141535938</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01761551255216646</v>
+        <v>0.01709627244920221</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0940172873117245</v>
+        <v>0.09259721063006443</v>
       </c>
     </row>
     <row r="29">
@@ -6639,19 +6639,19 @@
         <v>9295</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4668</v>
+        <v>4387</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16006</v>
+        <v>16305</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1148521578790545</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0576785289025479</v>
+        <v>0.05421000403197974</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1977711058970023</v>
+        <v>0.2014708084365796</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>11</v>
@@ -6660,19 +6660,19 @@
         <v>10315</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5866</v>
+        <v>5654</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>16871</v>
+        <v>16077</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.186139660456337</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1058535023796443</v>
+        <v>0.1020307763391332</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3044255120738066</v>
+        <v>0.2901086120380705</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>20</v>
@@ -6681,19 +6681,19 @@
         <v>19610</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12456</v>
+        <v>12748</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>29272</v>
+        <v>29820</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1438267687781516</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0913525330291448</v>
+        <v>0.09349276933792529</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2146887974746257</v>
+        <v>0.2187055233230879</v>
       </c>
     </row>
     <row r="30">
@@ -6710,19 +6710,19 @@
         <v>31880</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22816</v>
+        <v>23612</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>40107</v>
+        <v>42351</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.39391918804424</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2819169593079991</v>
+        <v>0.2917541839289561</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4955757516152842</v>
+        <v>0.5232981535211596</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>20</v>
@@ -6731,19 +6731,19 @@
         <v>18126</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11638</v>
+        <v>12337</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>24829</v>
+        <v>25709</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3270742274674138</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2099968144134087</v>
+        <v>0.2226183711069093</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4480279657861695</v>
+        <v>0.4639034823600536</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>49</v>
@@ -6752,19 +6752,19 @@
         <v>50006</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>39387</v>
+        <v>40228</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>62275</v>
+        <v>63075</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3667502362187873</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2888714005788616</v>
+        <v>0.2950400044648444</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4567324792696759</v>
+        <v>0.4626020599816622</v>
       </c>
     </row>
     <row r="31">
@@ -6781,19 +6781,19 @@
         <v>28777</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20868</v>
+        <v>20766</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>38027</v>
+        <v>38420</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.355583697104762</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2578487915059883</v>
+        <v>0.2565929443765</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4698712248127289</v>
+        <v>0.4747275981913798</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>17</v>
@@ -6802,19 +6802,19 @@
         <v>16655</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10357</v>
+        <v>10681</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>23508</v>
+        <v>23659</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3005347944919623</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1868926808470031</v>
+        <v>0.1927419395856716</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4241984714163158</v>
+        <v>0.4269111886559449</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>47</v>
@@ -6823,19 +6823,19 @@
         <v>45432</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>33900</v>
+        <v>35512</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>56666</v>
+        <v>56721</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3332092208506808</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2486297800723469</v>
+        <v>0.2604521265004075</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4155962327209944</v>
+        <v>0.4160014806841434</v>
       </c>
     </row>
     <row r="32">
@@ -6852,19 +6852,19 @@
         <v>9133</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4707</v>
+        <v>4544</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>16212</v>
+        <v>15974</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.112848324675296</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05815951360090975</v>
+        <v>0.0561453222321923</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2003188170947782</v>
+        <v>0.1973797792024975</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -6873,19 +6873,19 @@
         <v>6215</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2600</v>
+        <v>2649</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11393</v>
+        <v>12136</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1121503446938868</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04691477137294907</v>
+        <v>0.04779133291121523</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2055871025072346</v>
+        <v>0.2189974506741343</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>16</v>
@@ -6894,19 +6894,19 @@
         <v>15348</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>9238</v>
+        <v>9473</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>23808</v>
+        <v>23461</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1125646326164423</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06775135741752403</v>
+        <v>0.06947743828366384</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1746095852447213</v>
+        <v>0.1720643044524303</v>
       </c>
     </row>
     <row r="33">
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5814</v>
+        <v>5777</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01731761155120917</v>
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0540796543911686</v>
+        <v>0.05374119940429575</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5815</v>
+        <v>5738</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02476769933965809</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07695343296462133</v>
+        <v>0.07592717653320834</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -7040,19 +7040,19 @@
         <v>3733</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>940</v>
+        <v>966</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>8692</v>
+        <v>9971</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02039287753511008</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.005132989063109433</v>
+        <v>0.005276165471315209</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04748116385967743</v>
+        <v>0.0544678658277773</v>
       </c>
     </row>
     <row r="35">
@@ -7069,19 +7069,19 @@
         <v>24253</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>16208</v>
+        <v>16154</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>33915</v>
+        <v>32760</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2256085645951293</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1507671414246964</v>
+        <v>0.1502630630065388</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3154853193208887</v>
+        <v>0.3047340032589242</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>15</v>
@@ -7090,19 +7090,19 @@
         <v>15095</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>9428</v>
+        <v>8811</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>22888</v>
+        <v>22120</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1997600243544786</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.124768228843192</v>
+        <v>0.116597106418582</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3028789632043289</v>
+        <v>0.2927109935198646</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>38</v>
@@ -7111,19 +7111,19 @@
         <v>39349</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>29135</v>
+        <v>29115</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>52669</v>
+        <v>51461</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2149387391121578</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1591445630609302</v>
+        <v>0.1590344013716755</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2876961581932354</v>
+        <v>0.2810981860872164</v>
       </c>
     </row>
     <row r="36">
@@ -7140,19 +7140,19 @@
         <v>23761</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>16318</v>
+        <v>16300</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>33289</v>
+        <v>32870</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2210285157404353</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1517948660915557</v>
+        <v>0.1516206006563776</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3096632404840367</v>
+        <v>0.3057576705853821</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>31</v>
@@ -7161,19 +7161,19 @@
         <v>29401</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>21560</v>
+        <v>20989</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>37596</v>
+        <v>37983</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3890613591258711</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2853036357644343</v>
+        <v>0.2777498821861947</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4975071984795373</v>
+        <v>0.5026383864281172</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>54</v>
@@ -7182,19 +7182,19 @@
         <v>53162</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>42210</v>
+        <v>41807</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>67086</v>
+        <v>66061</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2903895356525196</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2305665147734547</v>
+        <v>0.2283652493866537</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3664475933381346</v>
+        <v>0.3608505071469854</v>
       </c>
     </row>
     <row r="37">
@@ -7211,19 +7211,19 @@
         <v>30937</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>22138</v>
+        <v>22691</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>41353</v>
+        <v>42423</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2877833710513261</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2059352009865223</v>
+        <v>0.2110714917812717</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3846686739466721</v>
+        <v>0.3946273602226366</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>20</v>
@@ -7232,19 +7232,19 @@
         <v>19404</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>12990</v>
+        <v>12780</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>27750</v>
+        <v>27928</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2567768128201919</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1719021969133546</v>
+        <v>0.169125488242441</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3672247772071484</v>
+        <v>0.369576245844371</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>49</v>
@@ -7253,19 +7253,19 @@
         <v>50342</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>38175</v>
+        <v>39712</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>63098</v>
+        <v>63411</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2749844059231712</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2085254969136948</v>
+        <v>0.216920264589971</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3446614987565824</v>
+        <v>0.3463737096714463</v>
       </c>
     </row>
     <row r="38">
@@ -7282,19 +7282,19 @@
         <v>26689</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>18080</v>
+        <v>18891</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>36717</v>
+        <v>37038</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2482619370619002</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.168179455686118</v>
+        <v>0.1757232301196293</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3415494880903838</v>
+        <v>0.344535674462593</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>9</v>
@@ -7303,19 +7303,19 @@
         <v>9796</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>4816</v>
+        <v>4581</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>16954</v>
+        <v>17488</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1296341043598003</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.06372744912054808</v>
+        <v>0.06062295031638917</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2243483584462601</v>
+        <v>0.2314252176710746</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>35</v>
@@ -7324,19 +7324,19 @@
         <v>36485</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>26371</v>
+        <v>25746</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>48561</v>
+        <v>48318</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1992944417770414</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1440469265232248</v>
+        <v>0.14063412524449</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2652558000901687</v>
+        <v>0.2639285971217719</v>
       </c>
     </row>
     <row r="39">
@@ -7428,19 +7428,19 @@
         <v>52862</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>40145</v>
+        <v>40523</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>69236</v>
+        <v>68818</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1472993681485226</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1118627928199786</v>
+        <v>0.112916255987261</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1929249781257243</v>
+        <v>0.1917614838372117</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>31</v>
@@ -7449,19 +7449,19 @@
         <v>31970</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>22604</v>
+        <v>22060</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>44259</v>
+        <v>42768</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1126325192698545</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.07963561645381599</v>
+        <v>0.07771903388974855</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1559277083940679</v>
+        <v>0.150672265197066</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>79</v>
@@ -7470,19 +7470,19 @@
         <v>84832</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>68594</v>
+        <v>68694</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>104202</v>
+        <v>102729</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1319893860481054</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1067239807399862</v>
+        <v>0.1068806955945527</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1621260750405978</v>
+        <v>0.1598340619117306</v>
       </c>
     </row>
     <row r="41">
@@ -7499,19 +7499,19 @@
         <v>61306</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>47649</v>
+        <v>46602</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>77594</v>
+        <v>76334</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1708293069008517</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.132774385511224</v>
+        <v>0.1298563065393263</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2162144351252887</v>
+        <v>0.2127042652833343</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>56</v>
@@ -7520,19 +7520,19 @@
         <v>59241</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>46948</v>
+        <v>47073</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>73792</v>
+        <v>75435</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2087072398743911</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.165398483443992</v>
+        <v>0.1658405938332606</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.259971733879321</v>
+        <v>0.2657611508485234</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>111</v>
@@ -7541,19 +7541,19 @@
         <v>120547</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>102381</v>
+        <v>98957</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>142622</v>
+        <v>141400</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1875574057786973</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1592934654892966</v>
+        <v>0.1539652485362828</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2219027441635197</v>
+        <v>0.2200019294692195</v>
       </c>
     </row>
     <row r="42">
@@ -7570,19 +7570,19 @@
         <v>121431</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>103002</v>
+        <v>101193</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>139710</v>
+        <v>141575</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3383652194766712</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2870133246834857</v>
+        <v>0.281971691698376</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3892986948377917</v>
+        <v>0.3944956493846123</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>92</v>
@@ -7591,19 +7591,19 @@
         <v>92911</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>77954</v>
+        <v>77657</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>109218</v>
+        <v>109142</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3273292614164821</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2746365347820799</v>
+        <v>0.2735901001732772</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3847793006252168</v>
+        <v>0.3845111676890767</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>194</v>
@@ -7612,19 +7612,19 @@
         <v>214342</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>191350</v>
+        <v>190526</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>240764</v>
+        <v>238923</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3334913896990124</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2977183082721558</v>
+        <v>0.2964364243808912</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3746013723906026</v>
+        <v>0.3717368735739182</v>
       </c>
     </row>
     <row r="43">
@@ -7641,19 +7641,19 @@
         <v>53420</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>39299</v>
+        <v>39540</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>67705</v>
+        <v>69752</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1488554015303781</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1095049909991917</v>
+        <v>0.1101782226066065</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1886591102498138</v>
+        <v>0.1943640558546474</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>36</v>
@@ -7662,19 +7662,19 @@
         <v>38132</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>27766</v>
+        <v>27056</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>50901</v>
+        <v>50424</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1343406069573633</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.09782122672728757</v>
+        <v>0.09532099154132664</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1793249672901815</v>
+        <v>0.1776438817453836</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>83</v>
@@ -7683,19 +7683,19 @@
         <v>91553</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>73708</v>
+        <v>74699</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>110376</v>
+        <v>112145</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1424452069989441</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1146806014637133</v>
+        <v>0.1162235536689209</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1717325475444994</v>
+        <v>0.1744845070023298</v>
       </c>
     </row>
     <row r="44">
@@ -7712,19 +7712,19 @@
         <v>69855</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>55610</v>
+        <v>56230</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>86515</v>
+        <v>86284</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1946507039435763</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1549564500145573</v>
+        <v>0.15668323648258</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2410730126366973</v>
+        <v>0.2404292069198696</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>58</v>
@@ -7733,19 +7733,19 @@
         <v>61592</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>48519</v>
+        <v>49384</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>75823</v>
+        <v>77651</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2169903724819091</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1709351766856303</v>
+        <v>0.1739816417647341</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.267128218063361</v>
+        <v>0.2735672274089008</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>118</v>
@@ -7754,19 +7754,19 @@
         <v>131447</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>112619</v>
+        <v>112474</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>155002</v>
+        <v>152001</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2045166114752409</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1752215993887361</v>
+        <v>0.1749972213833275</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2411655096445639</v>
+        <v>0.2364953935460134</v>
       </c>
     </row>
     <row r="45">
@@ -7858,19 +7858,19 @@
         <v>7007</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>3010</v>
+        <v>2965</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>13014</v>
+        <v>13817</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02136756318686714</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.009179939561474807</v>
+        <v>0.009042502035059869</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03968806565844127</v>
+        <v>0.04213662807916475</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>5</v>
@@ -7879,19 +7879,19 @@
         <v>4961</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1926</v>
+        <v>1921</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>10933</v>
+        <v>12053</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02091552921037389</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.008119170326257211</v>
+        <v>0.008100293049425892</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.04608932025797471</v>
+        <v>0.0508104996786221</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>12</v>
@@ -7900,19 +7900,19 @@
         <v>11968</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>6253</v>
+        <v>6193</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>19894</v>
+        <v>20227</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02117782368511785</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01106532410040243</v>
+        <v>0.01095790858329036</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03520293622666828</v>
+        <v>0.03579174955696895</v>
       </c>
     </row>
     <row r="47">
@@ -7929,19 +7929,19 @@
         <v>26962</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>17679</v>
+        <v>18086</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>38949</v>
+        <v>39272</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.08222376906883481</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.05391290918255257</v>
+        <v>0.05515556358305245</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1187777935319125</v>
+        <v>0.1197644069438571</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>25</v>
@@ -7950,19 +7950,19 @@
         <v>25945</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>16846</v>
+        <v>17407</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>36113</v>
+        <v>37610</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1093755461645847</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.07101954570895926</v>
+        <v>0.07338226581139677</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1522410042722699</v>
+        <v>0.1585552206786256</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>50</v>
@@ -7971,19 +7971,19 @@
         <v>52907</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>39390</v>
+        <v>40226</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>66815</v>
+        <v>70200</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.09362062179597122</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.06970272209960487</v>
+        <v>0.07118196461853223</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1182314323177094</v>
+        <v>0.1242215506517184</v>
       </c>
     </row>
     <row r="48">
@@ -8000,19 +8000,19 @@
         <v>87109</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>72589</v>
+        <v>71284</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>103386</v>
+        <v>102750</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2656454601664241</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2213670977306844</v>
+        <v>0.2173878444866374</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3152861160808581</v>
+        <v>0.3133455345303232</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>53</v>
@@ -8021,19 +8021,19 @@
         <v>54540</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>43604</v>
+        <v>42752</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>68155</v>
+        <v>69209</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2299276067135136</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1838239007670007</v>
+        <v>0.1802327213466973</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.287321510296605</v>
+        <v>0.2917647413052872</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>139</v>
@@ -8042,19 +8042,19 @@
         <v>141649</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>122029</v>
+        <v>121198</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>164672</v>
+        <v>164898</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2506530302382932</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2159351775791084</v>
+        <v>0.214464760444691</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2913933763337045</v>
+        <v>0.2917935451795747</v>
       </c>
     </row>
     <row r="49">
@@ -8071,19 +8071,19 @@
         <v>110581</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>93168</v>
+        <v>93359</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>129022</v>
+        <v>127818</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3372267750928534</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2841248598130236</v>
+        <v>0.2847063548726798</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3934631911279675</v>
+        <v>0.3897913855286609</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>92</v>
@@ -8092,19 +8092,19 @@
         <v>95536</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>80621</v>
+        <v>80315</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>109837</v>
+        <v>110224</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.4027546427383754</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3398771839328031</v>
+        <v>0.3385851021906485</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4630446163651117</v>
+        <v>0.4646753329425274</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>198</v>
@@ -8113,19 +8113,19 @@
         <v>206117</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>183301</v>
+        <v>181307</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>228509</v>
+        <v>227859</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3647318424203324</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3243583550128816</v>
+        <v>0.3208306205739668</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4043558233820007</v>
+        <v>0.403206096894885</v>
       </c>
     </row>
     <row r="50">
@@ -8142,19 +8142,19 @@
         <v>96254</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>79163</v>
+        <v>80507</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>113464</v>
+        <v>113431</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2935364324850205</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2414154509372491</v>
+        <v>0.2455124760303538</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3460190710890433</v>
+        <v>0.345916518864668</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>53</v>
@@ -8163,19 +8163,19 @@
         <v>56224</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>43726</v>
+        <v>43898</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>71077</v>
+        <v>70534</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2370266751731524</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1843361539587414</v>
+        <v>0.1850619557690298</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2996392383037395</v>
+        <v>0.2973529653502464</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>143</v>
@@ -8184,19 +8184,19 @@
         <v>152479</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>133639</v>
+        <v>131384</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>173103</v>
+        <v>174287</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2698166818602855</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2364786197136514</v>
+        <v>0.2324886276038974</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3063130208702007</v>
+        <v>0.308407643355183</v>
       </c>
     </row>
     <row r="51">
@@ -8288,19 +8288,19 @@
         <v>154141</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>132606</v>
+        <v>131418</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>183585</v>
+        <v>180371</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1088304120120938</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.09362584326243198</v>
+        <v>0.09278723232134116</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1296197244721854</v>
+        <v>0.1273503316790859</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>106</v>
@@ -8309,19 +8309,19 @@
         <v>108972</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>89790</v>
+        <v>90212</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>128937</v>
+        <v>129717</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.105594824457821</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.08700777897429646</v>
+        <v>0.08741579178983659</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1249409537926773</v>
+        <v>0.1256969947758013</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>245</v>
@@ -8330,19 +8330,19 @@
         <v>263112</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>235740</v>
+        <v>232864</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>295930</v>
+        <v>297038</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1074665914645564</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.09628633301966165</v>
+        <v>0.09511179173618828</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1208706326132028</v>
+        <v>0.1213233584876763</v>
       </c>
     </row>
     <row r="53">
@@ -8359,19 +8359,19 @@
         <v>187440</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>162473</v>
+        <v>164045</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>213958</v>
+        <v>215845</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1323410908997001</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1147135438133904</v>
+        <v>0.1158235043445558</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1510644810031217</v>
+        <v>0.1523968626323303</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>146</v>
@@ -8380,19 +8380,19 @@
         <v>150403</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>129074</v>
+        <v>128681</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>173960</v>
+        <v>172781</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1457421805258227</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.12507391893179</v>
+        <v>0.1246932841351073</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1685684116660814</v>
+        <v>0.1674261290072379</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>322</v>
@@ -8401,19 +8401,19 @@
         <v>337843</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>300569</v>
+        <v>303739</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>370628</v>
+        <v>374329</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1379897346421204</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1227656164785353</v>
+        <v>0.1240602442049303</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1513808479443981</v>
+        <v>0.1528923212920039</v>
       </c>
     </row>
     <row r="54">
@@ -8430,19 +8430,19 @@
         <v>376194</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>343175</v>
+        <v>339247</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>411465</v>
+        <v>409605</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2656108068256843</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2422975032315735</v>
+        <v>0.2395241136735314</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2905136391910464</v>
+        <v>0.2892002725979134</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>265</v>
@@ -8451,19 +8451,19 @@
         <v>263508</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>234422</v>
+        <v>236336</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>290649</v>
+        <v>292541</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2553411920075158</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2271569085661746</v>
+        <v>0.2290117217858581</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2816419972798185</v>
+        <v>0.2834752159685342</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>614</v>
@@ -8472,19 +8472,19 @@
         <v>639702</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>598629</v>
+        <v>596178</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>684391</v>
+        <v>683755</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2612820994520214</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2445063804197105</v>
+        <v>0.2435050891576236</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2795350612920292</v>
+        <v>0.2792753170905971</v>
       </c>
     </row>
     <row r="55">
@@ -8501,19 +8501,19 @@
         <v>318282</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>287948</v>
+        <v>285815</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>353637</v>
+        <v>350662</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2247215924602891</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2033044854961984</v>
+        <v>0.2017985199363606</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2496840959207292</v>
+        <v>0.2475834521178328</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>232</v>
@@ -8522,19 +8522,19 @@
         <v>236082</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>209510</v>
+        <v>209961</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>263645</v>
+        <v>265944</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2287659228403153</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2030172520335007</v>
+        <v>0.2034543893111097</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2554745477136336</v>
+        <v>0.2577025713233896</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>534</v>
@@ -8543,19 +8543,19 @@
         <v>554364</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>511123</v>
+        <v>514655</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>595071</v>
+        <v>592632</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2264263032062633</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2087650312007683</v>
+        <v>0.2102076579237979</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2430529379020522</v>
+        <v>0.2420565929417454</v>
       </c>
     </row>
     <row r="56">
@@ -8572,19 +8572,19 @@
         <v>380281</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>347524</v>
+        <v>346493</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>414552</v>
+        <v>415568</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2684960978022327</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2453679884584729</v>
+        <v>0.2446405123344159</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2926933086811782</v>
+        <v>0.2934106206439059</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>259</v>
@@ -8593,19 +8593,19 @@
         <v>273017</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>242142</v>
+        <v>244427</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>301515</v>
+        <v>301595</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2645558801685252</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2346375391886334</v>
+        <v>0.2368518353438034</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2921706797034234</v>
+        <v>0.2922483788985625</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>610</v>
@@ -8614,19 +8614,19 @@
         <v>653298</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>607641</v>
+        <v>610796</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>699598</v>
+        <v>699787</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2668352712350384</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2481870635463318</v>
+        <v>0.2494758763650544</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2857463287046392</v>
+        <v>0.2858237651223718</v>
       </c>
     </row>
     <row r="57">
